--- a/Industry/201612-201908/HKD/MILLION/Analysis_127_33 - Baby Products (HS Codes)_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_127_33 - Baby Products (HS Codes)_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="2688" yWindow="1644"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -25344,6 +25345,2874 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="5"/>
+    <col bestFit="1" customWidth="1" max="4" min="2" width="9"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="8"/>
+    <col bestFit="1" customWidth="1" max="7" min="6" width="9"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="8"/>
+    <col bestFit="1" customWidth="1" max="10" min="9" width="9"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="4" spans="1:15">
+      <c r="A1" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" t="n">
+        <v>6150.494</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7857.351</v>
+      </c>
+      <c r="E2" t="n">
+        <v>27.752</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5793.34</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8650.958000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4850.244</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-16.279</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+      <c r="O2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3149.83</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4736.11</v>
+      </c>
+      <c r="E3" t="n">
+        <v>50.361</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3461.691</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4980.543</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.161</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3199.878</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-7.563</v>
+      </c>
+      <c r="K3" t="n">
+        <v>51.213</v>
+      </c>
+      <c r="L3" t="n">
+        <v>60.276</v>
+      </c>
+      <c r="M3" t="n">
+        <v>59.753</v>
+      </c>
+      <c r="N3" t="n">
+        <v>57.572</v>
+      </c>
+      <c r="O3" t="n">
+        <v>65.974</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" t="n">
+        <v>491.702</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1074.476</v>
+      </c>
+      <c r="E4" t="n">
+        <v>118.522</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1248.551</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2035.096</v>
+      </c>
+      <c r="H4" t="n">
+        <v>89.404</v>
+      </c>
+      <c r="I4" t="n">
+        <v>769.333</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-38.382</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7.995</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13.675</v>
+      </c>
+      <c r="M4" t="n">
+        <v>21.551</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23.525</v>
+      </c>
+      <c r="O4" t="n">
+        <v>15.862</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" t="n">
+        <v>233.611</v>
+      </c>
+      <c r="D5" t="n">
+        <v>323.693</v>
+      </c>
+      <c r="E5" t="n">
+        <v>38.561</v>
+      </c>
+      <c r="F5" t="n">
+        <v>228.329</v>
+      </c>
+      <c r="G5" t="n">
+        <v>334.095</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.213</v>
+      </c>
+      <c r="I5" t="n">
+        <v>188.533</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-17.43</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.798</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3.941</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.862</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3.887</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" t="n">
+        <v>473.292</v>
+      </c>
+      <c r="D6" t="n">
+        <v>314.872</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-33.472</v>
+      </c>
+      <c r="F6" t="n">
+        <v>194.323</v>
+      </c>
+      <c r="G6" t="n">
+        <v>301.063</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-4.386</v>
+      </c>
+      <c r="I6" t="n">
+        <v>141.173</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-27.351</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7.695</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.007</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.354</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" t="n">
+        <v>308.77</v>
+      </c>
+      <c r="D7" t="n">
+        <v>242.696</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-21.399</v>
+      </c>
+      <c r="F7" t="n">
+        <v>116.992</v>
+      </c>
+      <c r="G7" t="n">
+        <v>189.03</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-22.113</v>
+      </c>
+      <c r="I7" t="n">
+        <v>104.191</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-10.941</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.089</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.019</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.185</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2.148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" t="n">
+        <v>382.351</v>
+      </c>
+      <c r="D8" t="n">
+        <v>202.409</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-47.062</v>
+      </c>
+      <c r="F8" t="n">
+        <v>98.229</v>
+      </c>
+      <c r="G8" t="n">
+        <v>172.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-14.925</v>
+      </c>
+      <c r="I8" t="n">
+        <v>91.096</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-7.261</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6.217</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.576</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.696</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.991</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.878</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F9" t="n">
+        <v>96.77500000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>137.409</v>
+      </c>
+      <c r="I9" t="n">
+        <v>59.243</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-38.783</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.588</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" t="n">
+        <v>173.097</v>
+      </c>
+      <c r="D10" t="n">
+        <v>115.141</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-33.482</v>
+      </c>
+      <c r="F10" t="n">
+        <v>54.726</v>
+      </c>
+      <c r="G10" t="n">
+        <v>73.783</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-35.919</v>
+      </c>
+      <c r="I10" t="n">
+        <v>52.802</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-3.516</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.814</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.465</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.853</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.089</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" t="n">
+        <v>86.053</v>
+      </c>
+      <c r="D11" t="n">
+        <v>62.214</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-27.703</v>
+      </c>
+      <c r="F11" t="n">
+        <v>28.563</v>
+      </c>
+      <c r="G11" t="n">
+        <v>45.729</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-26.498</v>
+      </c>
+      <c r="I11" t="n">
+        <v>38.241</v>
+      </c>
+      <c r="J11" t="n">
+        <v>33.886</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.399</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.529</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.788</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" t="n">
+        <v>189.998</v>
+      </c>
+      <c r="D12" t="n">
+        <v>188.443</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.8179999999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>72.72199999999999</v>
+      </c>
+      <c r="G12" t="n">
+        <v>92.355</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-50.99</v>
+      </c>
+      <c r="I12" t="n">
+        <v>36.077</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-50.391</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.089</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.398</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.255</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.068</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.744</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" t="n">
+        <v>42.342</v>
+      </c>
+      <c r="D13" t="n">
+        <v>48.18</v>
+      </c>
+      <c r="E13" t="n">
+        <v>13.787</v>
+      </c>
+      <c r="F13" t="n">
+        <v>32.487</v>
+      </c>
+      <c r="G13" t="n">
+        <v>49.96</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.694</v>
+      </c>
+      <c r="I13" t="n">
+        <v>35.184</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8.302</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.725</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" t="n">
+        <v>65.447</v>
+      </c>
+      <c r="D14" t="n">
+        <v>52.925</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-19.133</v>
+      </c>
+      <c r="F14" t="n">
+        <v>33.999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>51.129</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-3.393</v>
+      </c>
+      <c r="I14" t="n">
+        <v>24.175</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-28.894</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.064</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.674</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C15" t="n">
+        <v>53.341</v>
+      </c>
+      <c r="D15" t="n">
+        <v>37.862</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-29.019</v>
+      </c>
+      <c r="F15" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="G15" t="n">
+        <v>35.715</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-5.671</v>
+      </c>
+      <c r="I15" t="n">
+        <v>19.549</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-23.277</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.482</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" t="n">
+        <v>26.021</v>
+      </c>
+      <c r="D16" t="n">
+        <v>27.653</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6.273</v>
+      </c>
+      <c r="F16" t="n">
+        <v>13.898</v>
+      </c>
+      <c r="G16" t="n">
+        <v>22.87</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-17.297</v>
+      </c>
+      <c r="I16" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-23.08</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="B17" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" t="n">
+        <v>65.154</v>
+      </c>
+      <c r="D17" t="n">
+        <v>36.949</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-43.29</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15.761</v>
+      </c>
+      <c r="G17" t="n">
+        <v>26.188</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-29.123</v>
+      </c>
+      <c r="I17" t="n">
+        <v>10.559</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-33.003</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.059</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" t="n">
+        <v>31.765</v>
+      </c>
+      <c r="D18" t="n">
+        <v>17.194</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-45.87</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8.422000000000001</v>
+      </c>
+      <c r="G18" t="n">
+        <v>12.591</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-26.771</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9.433999999999999</v>
+      </c>
+      <c r="J18" t="n">
+        <v>12.012</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="B19" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9.173</v>
+      </c>
+      <c r="D19" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-11.26</v>
+      </c>
+      <c r="F19" t="n">
+        <v>7.695</v>
+      </c>
+      <c r="G19" t="n">
+        <v>9.987</v>
+      </c>
+      <c r="H19" t="n">
+        <v>22.684</v>
+      </c>
+      <c r="I19" t="n">
+        <v>8.048999999999999</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.599</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="D20" t="n">
+        <v>17.234</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-24.872</v>
+      </c>
+      <c r="F20" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="G20" t="n">
+        <v>13.787</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-20.001</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7.248</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-18.469</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5.041</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10.195</v>
+      </c>
+      <c r="E21" t="n">
+        <v>102.217</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="G21" t="n">
+        <v>8.077</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-20.77</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7.103</v>
+      </c>
+      <c r="J21" t="n">
+        <v>20.378</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4.904</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-18.67</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5.441</v>
+      </c>
+      <c r="G22" t="n">
+        <v>8.000999999999999</v>
+      </c>
+      <c r="H22" t="n">
+        <v>63.146</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.999</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.531</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-59.724</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.261</v>
+      </c>
+      <c r="H23" t="n">
+        <v>104.557</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.439</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1425.502</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="B24" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C24" t="n">
+        <v>18.414</v>
+      </c>
+      <c r="D24" t="n">
+        <v>23.291</v>
+      </c>
+      <c r="E24" t="n">
+        <v>26.489</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6.774</v>
+      </c>
+      <c r="G24" t="n">
+        <v>11.022</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-52.678</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.817</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-43.653</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.079</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C25" t="n">
+        <v>12.134</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6.274</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-48.289</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4.871</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-22.366</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="J25" t="n">
+        <v>38.109</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6.393</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7.382</v>
+      </c>
+      <c r="E26" t="n">
+        <v>15.456</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="G26" t="n">
+        <v>8.743</v>
+      </c>
+      <c r="H26" t="n">
+        <v>18.437</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.313</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-41.767</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.068</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="B27" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C27" t="n">
+        <v>6.407</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.545</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-44.672</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.343</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.476</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-30.166</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.183</v>
+      </c>
+      <c r="J27" t="n">
+        <v>136.966</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.066</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="B28" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.466</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.863</v>
+      </c>
+      <c r="E28" t="n">
+        <v>16.122</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.463</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.262</v>
+      </c>
+      <c r="H28" t="n">
+        <v>13.929</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.996</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-18.948</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="B29" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29" t="n">
+        <v>6.645</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4.009</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-39.669</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.881</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.277</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-18.249</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.958</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-32.055</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5.497</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5.551</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3.497</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4.196</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-24.401</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.484</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-57.551</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.031</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="B31" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.568</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.314</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-7.12</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.791</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-69.527</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.199</v>
+      </c>
+      <c r="J31" t="n">
+        <v>51.579</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.939</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.752</v>
+      </c>
+      <c r="E32" t="n">
+        <v>41.913</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9340000000000001</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.133</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-58.809</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-5.978</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.296</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.334</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-41.912</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-30.132</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.863</v>
+      </c>
+      <c r="J33" t="n">
+        <v>58.773</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.647</v>
+      </c>
+      <c r="E34" t="n">
+        <v>90.694</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-63.285</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="J34" t="n">
+        <v>71.748</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.696</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-37.301</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-36.537</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.637</v>
+      </c>
+      <c r="J35" t="n">
+        <v>86.203</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-57.924</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-1.83</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="J36" t="n">
+        <v>61.028</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="B37" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="E37" t="n">
+        <v>99.496</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.874</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-11.326</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.939</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="B38" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.264</v>
+      </c>
+      <c r="E38" t="n">
+        <v>21.507</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-51.278</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-14.614</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.319</v>
+      </c>
+      <c r="E39" t="n">
+        <v>42.351</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-26.07</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-64.53100000000001</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="B40" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.506</v>
+      </c>
+      <c r="E40" t="n">
+        <v>91.13</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-59.092</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-39.105</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="B41" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-44.688</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-10.173</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-70.292</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="B42" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-17.845</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-83.458</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="J42" t="n">
+        <v>151.401</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="B43" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.008</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2.713</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-42.959</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-68.127</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-27.026</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.003</v>
+      </c>
+      <c r="H44" t="n">
+        <v>276.086</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-81.336</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="B45" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-11.357</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-56.568</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-11.213</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.333</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-90.04600000000001</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="H46" t="n">
+        <v>60.222</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-19.949</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-99.57899999999999</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-100</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="J48" t="s">
+        <v>72</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-73.66</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="H49" t="n">
+        <v>208.107</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-89.794</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="E50" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-89.636</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J50" t="n">
+        <v>711.86</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="B51" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E51" t="n">
+        <v>79.913</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-79.79000000000001</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1103.197</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-88.932</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="H52" t="n">
+        <v>83.803</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-45.05</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-100</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="J54" t="s">
+        <v>72</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="B55" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E55" t="n">
+        <v>127.737</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-96.27500000000001</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-80.306</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="B56" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-99.36799999999999</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-100</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-52.948</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-68.02</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-100</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-100</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>72</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-100</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="B59" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.624</v>
+      </c>
+      <c r="E59" t="n">
+        <v>92.298</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2.441</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-100</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="B60" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="B61" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="B62" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="B63" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="B65" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.022</v>
+      </c>
+      <c r="E65" t="n">
+        <v>80.069</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-85.587</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="B66" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.849</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="B67" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-100</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C68" t="n">
+        <v>251.449</v>
+      </c>
+      <c r="D68" t="n">
+        <v>261.46</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3.981</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>4.088</v>
+      </c>
+      <c r="L68" t="n">
+        <v>3.328</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A23:A24"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="5"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="9"/>
     <col bestFit="1" customWidth="1" max="3" min="3" width="10"/>
     <col bestFit="1" customWidth="1" max="6" min="4" width="9"/>
